--- a/data/trans_dic/P70C1_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P70C1_R_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09369542057129567</v>
+        <v>0.09472877385867021</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1522873684084302</v>
+        <v>0.1534245947428106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1357069999421718</v>
+        <v>0.1332119445626839</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1764275052807072</v>
+        <v>0.1764384036068492</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2295766322553817</v>
+        <v>0.2300324428786522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1910912763375151</v>
+        <v>0.1884558927457909</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07633590722438947</v>
+        <v>0.07545701554516039</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1729831690063413</v>
+        <v>0.1692055733555994</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1307270767257726</v>
+        <v>0.1315368411472294</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1586173734704055</v>
+        <v>0.1561203770851566</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2590549863394017</v>
+        <v>0.2618358815476831</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1901976198196384</v>
+        <v>0.1908811629005503</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2004109171305468</v>
+        <v>0.2004109171305469</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2669979630074585</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1546852815674223</v>
+        <v>0.1522258221230881</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1936122984232289</v>
+        <v>0.1894253653323617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1742277061603515</v>
+        <v>0.1748711423504218</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2579372821649942</v>
+        <v>0.2539252423439772</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3589452167585668</v>
+        <v>0.3582994726720505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.262792900035504</v>
+        <v>0.2584899125458456</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2102262768680822</v>
+        <v>0.2089944750974961</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2621211829299712</v>
+        <v>0.2649196638344024</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2434116559525176</v>
+        <v>0.2445923970549345</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2895233821403133</v>
+        <v>0.2899330027302829</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3428785649500734</v>
+        <v>0.3414832942057786</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3038711257274814</v>
+        <v>0.3032028851273638</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.2916282030491796</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3336817902711719</v>
+        <v>0.3336817902711718</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.3127107731704706</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2340376845213604</v>
+        <v>0.2307185867585389</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2879818826206743</v>
+        <v>0.2853450211865572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2771729435310408</v>
+        <v>0.2786326546609099</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3606753646845232</v>
+        <v>0.3562105583371915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3838045853148112</v>
+        <v>0.3837767813088297</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3500664168399192</v>
+        <v>0.3545132977177035</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.2027948357975295</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2641972245978802</v>
+        <v>0.2641972245978801</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2296830614354115</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1849547407137743</v>
+        <v>0.1813752084825554</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2448770272018806</v>
+        <v>0.2441597935996749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.215366793262053</v>
+        <v>0.2155482197936375</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2271024028144483</v>
+        <v>0.2238704341194346</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2855689205899498</v>
+        <v>0.2859694166666776</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2450324123505234</v>
+        <v>0.2454296986393935</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35010</v>
+        <v>35396</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>50607</v>
+        <v>50985</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>95806</v>
+        <v>94044</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>65924</v>
+        <v>65928</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>76292</v>
+        <v>76443</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>134905</v>
+        <v>133045</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24147</v>
+        <v>23869</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>46781</v>
+        <v>45759</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>76707</v>
+        <v>77182</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50176</v>
+        <v>49386</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>70058</v>
+        <v>70810</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>111602</v>
+        <v>112003</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41703</v>
+        <v>41040</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15816</v>
+        <v>15474</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>61204</v>
+        <v>61430</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>69540</v>
+        <v>68458</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29323</v>
+        <v>29270</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>92317</v>
+        <v>90805</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>129258</v>
+        <v>128500</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>123949</v>
+        <v>125272</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>264763</v>
+        <v>266047</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>178013</v>
+        <v>178265</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>162136</v>
+        <v>161477</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>330526</v>
+        <v>329799</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>71634</v>
+        <v>70619</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>88615</v>
+        <v>87804</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>170126</v>
+        <v>171022</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>110396</v>
+        <v>109029</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>118101</v>
+        <v>118092</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>214868</v>
+        <v>217597</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>347811</v>
+        <v>341080</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>358749</v>
+        <v>357699</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>720518</v>
+        <v>721125</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>427071</v>
+        <v>420993</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>418364</v>
+        <v>418951</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>819766</v>
+        <v>821095</v>
       </c>
     </row>
     <row r="28">
